--- a/test/grade_test/전처리텍스트_naver/preprocessed_output.xlsx
+++ b/test/grade_test/전처리텍스트_naver/preprocessed_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-ocr-extraction\test\grade_test\전처리텍스트_naver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr-ocr-extraction\test\grade_test\전처리텍스트_naver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F46152-822B-49F0-BD74-396CE2B4CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973AD222-6321-4279-8695-56E6EC708AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>파일명</t>
   </si>
@@ -104,9 +104,6 @@
     <t>29.jpg</t>
   </si>
   <si>
-    <t>3.png</t>
-  </si>
-  <si>
     <t>30.jpg</t>
   </si>
   <si>
@@ -129,21 +126,6 @@
   </si>
   <si>
     <t>37.png</t>
-  </si>
-  <si>
-    <t>38.png</t>
-  </si>
-  <si>
-    <t>39.png</t>
-  </si>
-  <si>
-    <t>4.png</t>
-  </si>
-  <si>
-    <t>40.png</t>
-  </si>
-  <si>
-    <t>41.png</t>
   </si>
   <si>
     <t>42.png</t>
@@ -216,9 +198,6 @@
     <t>문서확인번호XD4D-0DBB-0132-6483제출처:개인열람용용도:일반용점확인제2022115895호A진본면-성적증명서2022/08/0914:28생년월일1994.08.21KST통신학번131319성명강혜정무역정보입학일자2013.03.04졸업(수료)일자2018.08.24학위종행정학사학위등록번호전남대2017(학)3H2소속사회과학대학행정학과부전공복수전공대학학부(과)및전공학위종학위등록번호졸업일자구분교과목학점성적구분교과목학점성적구분교과목학점성적2013년도1학기평균평점:3.50/4.5취득학점평균평점:1.8015학점/4.5교필행정학개론3B백분을점수:87.5/100백분율점수:71/100교필글쓰기3A+취득학점:6학점2015년도1학기2학기2017년도평균평점:3.75/4.5교선기초영어3AAABBH백분율점수:90/100전공행정법총론대3전공관료제론전공정책학특강전공지방자치론3333지방제정돈일선예술파마케팅은2013년도2학기()서양미술사1일선미술과저작권면법총칙당뇨병전공전공현법333현대조형과이론일선회랍철학wwwww취득학점15학점18학점:전공정책학개론취득학점9학점취득학점평균평점:3.67/4.5평균평점:3.10/4.5:백분율점수:85.5/100백분율점수:89.6/100평균평점:2.83/4.5백분율점수:81.6/1002015년도하계학기2018년도1학기기초프랑스어제주대학교고유교환된2014년도1학기임신아프리카지역의이해한자의이해(33AB+한국사물리학의이해BBGG교환33300.00전공햇법인사행정돈평균평점취득한정:3.75/4.56학점전공교선영화로보는세계경제사행정조사방법론∞비교행정론3백분율점수:90/100전공정책분석평가론전공3취득학점12학점전공행정학특강3:18학점츠주우금추추2학기취득학점:평균평점:2.88/4.52015년도평균평점:2.67/4.5인간과가치백분을점수:82.6/100교선33333백분율점수:79.6/100행정법각론B전공2014년도2학기정기영정성환경행정론미술교육론TIONAAAAPH총취득학점:131학점생활영어1B패배.영향예술과미학33332동서미술비교론총평균평점:백분율점수:3.1285.6/4.5/100영화로보는세상취득학점=15학점복지행정론평균평점:3.90/4.5이수학점제:57제공한주전공백분율점수93/100진로설계와자기이해:취득학점:14학점평균평점:3.38/4.52016년도1학기프랑스문화와예술백분을점수:86.9/100교체공동33333어DDDB행정관리론2014년도동계학기적합배우리더십톤일선가족관계학3B+한국복식문화의이해취득학점:3학점일선독일영화분석위사실을증명합니다.2022년8월9일전남대학교총*RemarkA+:95-100(4.5)A:90-94(4.0)B+:85-89(3.5)B:80-84(3.0)C+:75-79(2.5)C:70-74(2.0)D+:65-69(1.5)D:60-64(1.0)F:0-59(0.0)본PDF증명서는webminwon.com에타임스탬프(시점확인도정)와서위변조여부를검증하시기전자서명을바랍니다.동해(유효기간은원본효력을발급일로부터가지는전자증명서로서,90일)(AdobeAcrobat출력물은Reader사본입니다.권장)</t>
   </si>
   <si>
-    <t>성적증명서제2023-160206호전북대학교학번201610381성명방하림생년월일1997.10.13.입학2016.3.2졸업2021.2.22소속공과대학신소재공학부(전자재료공학학위공학사교육인증제2전공부전공학위등록번호전북대2020(학)0619연계전공융합전공졸업자격인증영어.컴퓨터인증구분학과목학점성적백구분학과목학장성적:구분학과목학점성적&lt;2016학년도1학기&gt;&lt;2018학년도1학기&gt;교양글쓰기3.0교양경영과창업의이해3.0A교양대학수학2.0기및진로개발및상담0교양모험과정의1.0전진전일일반도체재료3.050시608교향생활속의물리3.0원세라믹스공학13.0교양실용영어(영어강의)3.0다시마다선선선신재생에너지실험3.0교양초급물리학!!스포츠심리학3.0교양최학기초광산교육경영은3.0기림진로개발및상담0학점:15광전광고:3.00학점:16명절명균3.20환산점수:82.9환산점수85.1&lt;2019학년도2학기&gt;&lt;2016학년도특별여통학기&gt;기전전전진전일월롱신전선전선진로개발및상담수학1ON···...다다다시금속재료학R일반물리학1만도체스자33마더테마디사양일반화학1세라믹스공학20양일반화학실험1재료과학3000&lt;2016학년도2학기전자재료명성3고양C언어기초다다사다시아마국제커뮤니케이션393933950401083고양수학2학점:18평창평균3.00고양명문특헤환산점수:82.9교일일반물리학2&lt;2020학년도1학기&gt;교양일반물리학실험필선선선선진료개발및상당기전전전전!00교양일반화학2반도체공정교황일반화학실험2생체모방소재::기원진료개발및상담Pass연료전지3.0확정:17평창평균:2.82전자세라믹및음용실험3.0환산점수80.8학점:12광접광산:3.25###&lt;2016학년도특별기술학기환산점수85.7교양일반물리학실험20**&lt;2020학년도2학기&gt;&lt;2017학년도1학기&gt;진료개발및상당금영산공업수학:2525재료영역학033300001필선선선330!비판적사고와논리분말가공학필진로개발및상담세라믹공정진재료물리학필3come두괴전자현미경학3.0전재료조직학학점12평창평균132238월2:38전선세라믹상평형환산점수:75.8전선창의적공학설계입문학점:18평점평균:2.50총학점:134환산접수:77.1총평집평균:2.78/4.5&lt;2017학년도2학기&gt;총성직판균:60.30/100공원공업수학23.0마음아영미문화의이해3.0&lt;이하여백&gt;교양한국사회이해3.0진로개발및상당0.0길Pass재료물리화학23.0Co작품:12평창원관2.00환산점수:71.4수상내역위의사실을증명합니다.2023년11월27일전북대학교총·성적표시기준2011년이전:A+=(95-100),A=(94-90),B+=(85-89).B=(80-84),C+=(75-79),C=(70-74),D+=(65-69).D=(60-64).F=60점미만2012년이후:A+=4.5,Ao=4.0.B+=3.5.Bo-3.0.C+=2.5,Co=2.0D+=1.5.Do-1.0,F=0.0본교는상대평가를실시하고있음.*'과목명(영어강의)'은영어로강의가진행된과목을표시황·우)54896전라북도전주시덕진구덕진동1가664-14번지전북대학교학사관리과(063-270-2094)인터넷열량1실리대학¥...·원본대조메뉴에서인터넷발급번호로입학(알리실로부터)X일이내1또는스마트폰원본대조업으로49하단탕마트드美月日601기스마트美캔스토마HHOSE검색다문화올수있습니다위·변조방지용원본대조코드(Internetno)3437653422323819특허10-1039390</t>
-  </si>
-  <si>
     <t>*원본확인번호:1589-A5746-7BB1-DBC16제2023-106230호성적증명서발급일자2023년11월30일:대학사회과학대학학부(파)정치외교학부학번20071015성명추진주생년월일1988년11월1일입학일자2007년3월2일졸업일자2011년2월25일학위명정치학사학위번호조선대2010학951호증서번호제137152호복수전공영어영문학과연계전공부전공특별전공이력사항a나나인증융합전공구분교과목명학점성적구분교과목명학점성적구분교과목명학점성적2007년도1학기평점평균:3.8121비교정치론3A+06한국사2008년도2학기31교육실습206TOEIC07교양일어2AO34영어교과교육론306생활영어121한국정치론3AO52영어음성학307한국근현대사A+22국제기구론3A+52영미문화연구3A+07지방자치론22정치경제론3B+신청학점:14취득한점:1407한반도와국제관계22근.현대정치사상3평점평균:3.8607현대사회와정치B+22분단과한국정치32010년도하계계절학기21정치학A+31교육심리28052영미단편소설신청학점:21취득학점:2131교육학개론2114신청약점:3취득하점:3평점평균:4신청학점:21취득약정:21평점평균3.52007년도2학기평점평균:42010년도2학기06교양영어2B+2009년도1학기34영어교과교재및연구법06삶과글2B+21근현대외교사52영국희곡06생활영어21A+22경제원론1B+52영미문학비평07일본의이해2B+31교육행정및교육경영AO52영미희곡의이해07법과현대사회3B+34사회과교육론52고급영문해독07국제매너와교양2B+52영어학개론352영미문학과영화07연극의이해와감상2AO52중급영문해독2B+52르네상스영시3B+07현대생활과패션2A+52고급영문읽기3B+신청학점:20취득학점:2022사회학3B+신청학점:18취득학점:18평점평균:3.78신청학점:19취득학점:19평점평균:3.722010년도동계계절학기평점평균:3.712009년도2학기22법학입문3H+2008년도1학기22사회과학방법론3B+52실용영문법3B+07아랍.이슬람문화의이해2B+31교육과정및교육평가2BD신청학점:6취득학점:607대중매체와시사영어3B+31교육방법및교육공학2BO평점평균:3.521국제정치론3AO34사회교재연구및지도법2B+21동양정치사상3AD52제2언어습득론3BO신청학점제:161.022북한사회론3B+52영국문학사3B+취득학점제:161.022제3세계론3AO61경제원론23B+핑점계:606.0031교육철학및교육사2A+신청학점:18취득학점:1831교육사회학2B+평점평균:3.31평점핑균:3.76/4.5신청학점:취득학점:2010년도1학기백분율환산점수:91.542121조선대학교교무처취득학점학점신청학점계평점계평점평균백분을환산점수교양전공교직부전공다전공자유선택취득학점계현황161.041.048.026.00.043.03.0161.0606.003.76/4.591.54이수구분교양과정(01-07.11),전공과정(20:전공기초,21:전공필수.22:전공선택),교직(31),부전공(40.41)복수전공(51.52),연계전공(71.72),특별전공(75),자유선택(61)성적구분:A+(4.5:95-100)AD(490-94),B+(3.5:85-89)80(3:80-84),C2(2,5:75-79)CO(2.0:70-74),0+(1.5:65-69).00(1:60-64).F(0:0-59),P(PASS)다전공:복수전공,연계전공,융합전공,CU나노민중합산학점Pass.HonPass과목은평점평균계산시포함하지않음.*https//chosunicerticom/icerti/compare.jsp*에접속하여증명서원본확인번호입력하면증명서원본대조및유효성을검증할있습니다QR코드.이용하면더욱편리합니다.(발급일로부터180일이내)원본확인번호1589-45746-7881-DBC16lcen</t>
   </si>
   <si>
@@ -234,9 +213,6 @@
     <t>CHONNAMNANONAL제2023-178435호AMNATIONALUNIVERSI성적증명서ONALUNIVERSITY학번184654성명임채연생년월일1999.5.7성별여입학일자2018.3.2졸업일자2022.8.26학위종경제학사학위등록번호전남대2021(학)3953소속농업생명과학대학농업경제학과부전공경영학전공복수전공대학학부(과)및전공학위종학위등록번호졸업일자구분교과목학점성적구분교과목학점성적구분교과목학점성적대DNAUNIVERSIT주전공학점계39부전공학점계:24학교:CHONNAMIONNAMNATIONALMNATIONALUNIVNALUNIVERSITY대학교CHONNAMNNNAMNATIONALMNATIONALUNIVUNIVERSITYN님N님대학교CHONNAMAMNATIONALMNATIONALUNIUNIVERSITY대학교CHONNAMNAMNATIONALMNATIONALUNIVUNIVERSIT대학교CHONNAMNONNAMNATIONALNATIONALUNIVONALUNIVERSITY대학교CHONNAMNNATIONAHONNAMNATIONALUMNATIONALUNIVER전남대학교CHONNDNALUNIVERSITY남대학교CHONNAMNIATUNIVERSITY○전남HONNAMNATIONALMNATIONALUNIV전남대학교CHONNDNALUNIVERSITY남대학교CHONNAMNUNIVERSITYO전남CHONNAMNATIONALMNATIONAL전남대학교CHONNDNALUNIVERSITYN남NUNIV대학교CHONNAMNUNIVERSITY○전남HONNAMNATIONALMNATIONALUNIVIT전남대학교CHONNDNALUNIVERSITY남대학교CHONNAMNATIONA위사실을증명합니다.CHONNAMNATIONALUNIVNAMNATIONALUNIVERSITY2023년11월30일NATISITY○전님남대학교CHONN전남대학교총ONALUNIVNAMNATIONALUNIVERS대학교CHONNAMSITYO전남*Remark*A+:95-100(4.5)A:90-94(4.0)B+:85-89(3.5)B:80-84(3.0)C+:75-79(2.5)C:70-74(2.0)D+:65-69(15)D:60-64(1.0)F:0-59(0.0)</t>
   </si>
   <si>
-    <t>원점수/과목평균성취도학기교과과목학점수석차등급비고(표준편차)(수강자수)기술·가정/제2외일본어I161/69.3(16.5)D(41)6국어/한문/교양기술·가정/제2외기계제도468/79.4(8.2)C(41)71국어/한문/교양기계기계기초공작588/87.4(5.2)A(41)기계기계일반275/81.6(8.6)B(41)기계열·유체역학274/83.2(10.4)C(41)국어국어468/81.4(10.4)D(38)7수학수학351/67.2(15.4)E(38)7영어영어351/76.4(15.0)E(38)9사회(역사/도덕포통합사회168/76.2(10.1)D(38)7함)과학통합과학182/84.8(5.6)B(38)62기술·가정/제2외일본어I257/78.2(14.0)E(38)7국어/한문/교양기술·가정/제2외기계제도372/83.1(8.9)C(38)7국어/한문/교양기계기계기초공작590/87.9(5.0)A(38)기계기계일반286/83.2(10.6)A(38)기계열·유체역학283/82.5(9.3)B(38)이수학점합계52과목세부능력및특기사항(1학기)국어:본인이원하는직무에종사하기위해서지금까지노력해온일,현재도전하고있는일,앞으로준비해야할일을정리하고이를글로표현하는활동을함.개요를작성하면서진로탐색을위해본인이평소에노력하고있는바를객관적으로돌아보는시간을가졌으며글쓰기를통해자기계발의기회를찾아내고이를실행하기위한구체적인방법을모색하였음.(2학기)국어:자신의성공경험과실패경험을수필로작성하기위하여글쓰기전단계에서꼼꼼하게개요를작성하고해당내용에대해피드백을받은후글의내용을발전시키는성실한모습을보였음.(1학기)수학:수업태도가바르고주어진과제를성실하게완수함.(2학기)수학:2학기총정리활동에서점의x축대칭이동,점의y축대칭이동,서로같은두집합에관하여잘서술함.(1학기)영어:코로나로인한온라인수업이장기간진행되었지만항상바른자세로성실히수업에임하여다른학생들의모범이됨.자기소개영어말하기과제어서약간의망설임이있었지만끝까지최선을다하는모습을통해하면된다는자신감을갖게됨.매단원별로진행되는영어단어퀴즈에서좋은성적을거두지는못하였지만끝까지외우려는모습을통해영어독해문제에자신감을갖게됨.(2학기)영어:수업시간에졸거나떠들지않고항상바른자세로노트필기와수업에참여하며다소어려운문법사항과독해문장이주어지더라도끝까지해결하려는자세를지님.주어진주제에대해자신의생각을말하는영어말하기활동에서철저히준비하여유창하게준비한내용을해내는모습을보여주어다른학생들의모범이됨.영어의기본기가잘갖추어져있어다소어려운어법문제나긴문장독해가주어지더라도어려움없이해내는모습을보여줌.꾸준히영어공부를한다면더욱향상된실력을지닐것으로기대되는학생임(1학기)통합사회:인권과헌법의관계,인권보장을위해헌법에규정된제도적장치,준법의식과정의실현,인간존엄성실현을위한시민불복종,시민참여의의미와필요성을정확하게인식함.시민불복종의정당화조건에대해발표하면서,탁월한의사소통능력과문제해결능력을보인사회과학분야의모범학생임.수도전기공업고등학교2023년11월28일5/13반2번호7성명김재우수도전기공업고등학교/2023.11.2815:24/1085.***.226/이호현</t>
-  </si>
-  <si>
     <t>[원본확인문서번호:XDD1-E316-9896-2390]성적증명서1/1성명배현지(복수전공)학과(부)동학과없음학번202231-355548생년월일2000.10.13.등록학기최종2023년도2학기(복수전공)학위명없음김민정기자]라휑제공2022년09월01일학등록번호위구분교과목명학점성적구분교과목명학점성적구분교과목명학점성적*인정학점*교양33전공30일선0합계63&lt;2022학년도2학기&gt;교양원격대학교육의이해1P전공생물과학3BO전공재배학원론3A+전공환경친화형농업3A+전공식용작물학13A+전공원예작물학13B+일선고전의장면과표현3C+신청학점:19취득학점:19평점:67.5평점평균:3.8&lt;2023학년도1학기&gt;교양한국사의이해3A+교양생활과건강3B+교양세상읽기와논술3BO전공숲과삶3A0전공식물의학3BO전공재배식물육종학3AO전공식용작물학23B+신청학점:21취득학점:21평점:76.5평점평균:3.6&lt;성적합계&gt;교양:43전교:0교양소계:43전공:57일선3봉사0총취득학점:103복전:0연필:0연선:0교직0총평점:144.0총평점평균:3.7/4.5종점환산점수181010/100=000&lt;&lt;이하여백r구리시[게L1202BH-0038066호위의사실을증명함.2023.11.292023년11월29일F21306121meaurur서류발행일:한국방송통신대학교2023년11월29일*학업성적평가기준(등급,평점,실점순입):A+4.5100-95A04.094-90B+3.589-85BO3.084-80C+2.579-75CO2.074-70D+1.564-[구분]교양:일반교양,전교:전공기초교양,전공:소속학과전공,일선:일반선택,:복수전공학과전공(북전),:연계전공필수(연필),◇:연계전공선택(연선).교직:교직전공E과정학사학위과정본증명서는한국방송통신대학교에서발급되었으며"http://certi.knou.ac.kr/Ocy.jsp"에접속하여상단의증명서"원본확인문서번호"를입력하면증명서원본대조및유효성을검증할수있습니다.(90일간유효)발급번호23-F-027831담당자임수아동장인소속기관한국방송통신대학교전화번호(02)3668-4337민원사무전용(1)</t>
   </si>
   <si>
@@ -252,39 +228,18 @@
     <t>30230087347끼성적증명서명:윤서영대입딱일자:2017년3월1일섬생학막:이과대학년길일:1998년2월11일하부(학과):생물학파출입일자:wwwwwwwman번:2017103313천공:생물학학위등록번호:이수교과목명교감사명학점성적비고일수교과목녕교감사명학점성격비고구분취득하점:9.0판정평균:2.037캐순감E3.22|2:23막남도:파기11경영롱기타정신료3.0R+충북학점:3.0평점평균:3,230비불광55.56총력목학점:139.0총평겸평균:3,493/4.3(3.74/4.5)빅t율:92.38/100이하여명이수구분::기초교양2-통합교당3전공교양4전국필수전국선택6·뮤직6-인반전격11-전·7조1←중매코파15-비분이스교과16-기조교과자유이수20교수(전신)21-28*게임학기32~대학원정&amp;동굴&amp;렇검:a+4.3AC4.0A-3.7E43.3393.03-2.7C+2.3202.9C-1.7D+1.3DC1.0J-3YEOPPuxxN(P)Non-day·비노:국어·영어강좌Rx=교환학생/식점교류M=혁점프기국=개수감위의사실을증명합니다.2023년11월7일경희대학교교무본증정시는FAX님원본이며,구디대학및원본대조메뉴에서인터넷발급킨으로원본대조가90일이다)(2cd2)원본대조번호:11111227707발급번호22당자심준처리기관경화번호02)961-9335</t>
   </si>
   <si>
-    <t>서명확인필제출용도:취업제출용발급일:2023/12/022023/12/02제출처:한국농수산식품유통공유효기간:2024/03/0117:19:07아이엔텍성적증명서제2023-216441호성명:양재서대학:공과대학생년월일1997년05월06일(남)입학년월일:2022년03월02일학과/전공:컴퓨터정보통신공학부컴퓨터공학전공졸업년월일:공란학위등록번호:공란학위명:공란구분교과목학정성적구분교과목학점성적구분교과목학정성적편입생인정학점:652023년도1학기2022년도1학기전공개별연구(CS프로그램1P합성기법연구)전공이산구조3전공기술창업캡스톤디지인13B+전공객체지향프로그래밍3A+전공컴퓨터알고리즘과실습344합계취득학점:19명정:72평균:4전공컴퓨터네트워킹3서누계취득학점:59평점:235.5평균:4.21전공공개SW프로젝트3AO학기별백분율:94.3공교기술보고서작성및발표3A+2023년도여름학기합계취득학점:18평점:79.5평균:4.42누계취득학점:18평정:79,5평균:4.42전공개별연구(CS기계학습기1P학기별백분율:99.1반보안약점분석기법)2022년도여름학기합계취득학점:1평점:0평균:0누계취득학점:60평점:235.5평균:4.21공교자아와영상1P공교자아와영상2P총취득학점:125총평균:4.21/4.5합계취득학점:2평점:0평균:0영어강의취득학점:6누계취득학점:20평점:79.5평균:4.42백분율환산점수:96.7석차:13/1722022년도2학기-이하여백-전필자료구조와실습3A+日,日,日中프로그래밍언어개념3B+어드벤처디자인3B+모바일컴퓨팅3A+&lt;영어&gt;테크니컬프리젠3A+테이션전공암호학과네트워크보안3A+전공개별연구(CSAR/MR프로1F그래밍기법연구및시각화프로그래밍)공교불교화인간2At합계취득학점:20평점:84평균:4.2누계취득학점:40평점:163.5평균:4.3학기별백분율:96.62023년도1학기전공컴퓨터구성3A+전공계산적사고법3A+전공형식언어3AO전공데이터베이스시스템3A0전필&lt;영어&gt;컴퓨터공학종합3B+설계1[등급:평정]A+:4.5A0:4.0B+:3.5BD:3.0C+:2.5CO:2.0D+:1.5DO:1.0F:0.0P:Pass(불계)R:재수강(불계)*◇표기는해당언어로강의를진행한과목명.위의사실을증명합니다.2023년12월02일동국대학교교무처본종영서는전자중형서(파일)이므로타임스님프및전자서명이없는증명서는위조로간주되며파일이외의출력물은사본입니다.(INTERNETNO)3245261621633339본증명서는전자증명서(PDF파일)로발급되었습니다.전자증명서는출력시출력물은사본으로인정됩니다.전자증명서확인용전용뷰어가아닌경우진본여부및전자서명을확인할수없으며진본여부가표시되지않습니다.전자증명서확인용전용뷰어는www.certpia.com/eDown에서다운받을수있습니다.</t>
-  </si>
-  <si>
     <t>성적증명제2021-026680호헉번201811243성명양재서생년월일1997.5.6입학2018.3.1절업소속공과대학소프트웨어공학과학위교육인증공학교육인증제2전공학위등록번호연계전공부전공졸업자격인증구분학과목학점성적구분학과목학점성적구분학과목북점성식&lt;2018학년1학기&gt;핵정:21평점평균:4.29교명C인어기초3.0At환신점수:97.6교양글쓰기3.0교양대학수학2.0A+총학점:82교양일반물리학13.0AD총평점평균:4.07/4.5교양일반물리학실험1.0A+충성적평균:95.1/100교양초급일본어3.0B+전체석치:6/44교양현대디자인의이해3.0No기필진로개발및상담0.0Pass이하여백학점:18평정평균:4.17환산점수:96.2&lt;2018학년특별여름학기&gt;교양수학13.0A+&lt;2018학년2학기&gt;교양모험과정의1.0Pass교양수학23.0At교양식량과인류3.0B+교양실용영어(영어강의)3.0B+교양환경과생물의이해3.0At기밀진로개별및상담0.0Pass전선C++프로그래밍3.0At전선디지털공학3.0Bo전신창의적공백설계입문3.0C+약점:22평점평균:3.71환신점수:91&lt;2019학년1덕기&gt;교명경영과정입의이해A+기필진로개발및상담::Pass전펄소프트웨어공학개론전필자료구조및알고리즘3.0전선JAVA프로그래밍3.0전선이신수학33.0전선임베디드시스템개론학점:18평점평균4.08:환산점수:95.2&lt;2019학년2학기&gt;교영사고와토론A+기필진로개별및상담3503999399Pass전필컴퓨터구조A704A7404500전선데이티통신전선선형대수학전선소스코드분석전선소프트웨어도메인모델링3전선파일구조론3.0A+수상내역위의사실을증명합니다.2021년12월3일전북대학교총장·성적표시기준2011년이전:A+(100~95)A(94-90),B+(89-85),B(84-80).C+(79-75),C(74-70),D+(69-65),0(64-60),F(60점미만)2012년이후:A+(4.5),A0(4.0),E)+(3.5),8o(3.0),C+(2.5).Co(2.0),D+(1.5),Do(1.0),F(0.0)*본교는상대평가를실시하고있음.·'과목명(영어강의)"는영어로강의가진행된과목을표시함*우)54896전북전주시백제대로567전북대학교학사관리과(063)270-2094*이증명서는자동발급기로발급한것입니다.</t>
   </si>
   <si>
     <t>문서확인번호XD02-66F4-17FE-A023제출처:한국농수산식품유통공사용도:공공기관용2023/12/0309:23:30성적증명서KSTSLAND성명:김도원생년월일:1996년8월22일입학일자:2016년3월1일입학졸업일자:2022년8월25일학위명학위번호문과대학영어영문학과문학사성균관대2021(학)3079경영대학경영학과경영학사성균관대2021(학)3079구분교과목학점성적구분교과목학점성적구분교과목학점성적[2016년1학기]학점계:20징점계:82.0결정평균:4.10경영정보Concentration인증취득교양영어쓰기2이하여백[2020년2학기]교양동양사상임문3전공영미드라마와영화3B+교양심리학입문3A+전공관리회계3B+고양일반논리학2A+전공마마령관리3A+교양컴퓨팅사고와SW코딩2A+전공경영통계3A교양학술적글쓰기2BH전공조직행동3B+선택FIE세미나11P학점계:15평점계:57.0평점평균:3.80학점계:15평점계:61.0평점평균:4.36[2021년1화기[2016년2학기]전공*영어학입문A+교양*영어발표2BH전공영미드라마입문B+교양예술사와철학사상3B+전공*용용언어학3B+고양철학입문3B+전공재무관리W학점평점교양사회과학연구입문3A+131513.0전공경영전략A+총계총계교양기초독어13A+교향문제해결과알고리즘2서학점계:15평점계:60.0평점평균:4.00평점4.10/4.5전학년96.0/100평균백분율교양창의적글쓰기2C+[2021년여름계절수업]선택FIE세미나!!1P전공-duceConputerInteraction3P우등졸업(SKKUMagnaCumLaude)학점계:19징집계:99.0평점평균:3.83전공유통관리론A+학점계:6평점계:13.5평점평균:4.50[2017년1학기]교양성균논어2B+2021년2학기1교양이론리더십2A+전공영어사교양기술시대의회계3&amp;전공*영어음운형태의이해전공영문법의이해3M전공*영어구조의이해3A전공*영어발음의이해3A전공소비자행동3선택언어논리입문1P전공생산운영관리3M학점계:14징집계:53.5평점평균:4.12학점계:15징점계:63.0평점평균:4.20[2020년1학기]2022년1학기]고양*스페인어문화권의사회와문화2B+전공인문학명자산책3M교양과학사3서전공경영정보처리3A+위의사실을증명함전공미국드라마3BH전공인터넷과경영3A+2023년12월03일전공언어습득과영어교육3B+전공·경제학원론13M전공컴퓨터언어학입문학점계:12징점계:평점평균:A+54.04.50성균관대학교3교무처장전공회계원리3&lt;경영학과Concentration인증&gt;전공경영정보시스템(세부전공15학점이상취득)성적등급및C+:2.5C2.0D+:1.5A+:4.5A:4.0B+12.5B:3.0D:1.0졸업평가평점기준F:0.0P:즛점포기/수강철회:Pass3품이수인성품품(45시간)국제품품창의(정보)품품성균명품미취득가표시된과목은국제어로진행한과목임.기타Page1/1본PDF증명서는타임스탬프(시점확인도장)와전자서명을통해원본효력을가지는전자증명서로서출력물은사본입니다.증명서유효기간은발급일로부터180일로,icert.skku.edu접속후상단문서확인번호를통해위변조여부를검증하실수있으며,타임스탬프를통해증명서를검증하기위해서는전용PDF파일뷰어(AdobeAcrobatReaderIC32bit)와검증용프로그램설치가필요하며(icertskku.edu[FAQ]메뉴에서설치가능),설치후전용PDF파일뷰어로확인바랍니다.</t>
   </si>
   <si>
-    <t>문서확인번호:1701-6125-2218-0588(신청인:최다연)정부24점확인지진본매년2023/12/0323:08:43gov.kKST정부시철확인센터발급번호:F10000063-2023-003258성적증명서성명:최다연생년월일:2006년01월13일학교:전남여자상업고등학교Page1of21학기2학기학년교과과목원점수/과목평균성취도석차원점수/과목평균성취도석차단위수단위수(표준편차)(수강자수)등급(표준편차)(수강자수)등급1국어국어385/67.80(10.8)A(132)2392/71.20(15.2)A(133)11수학수학330/61.40(23.4)E(132)7376/69.10(19.9)A(133)51영어영어382/69,50(16.0)A(132)4392/7090(17.5)A(133)31사회(역사/도덕포함)통합사회393/81.00(9,2)A(132)3396/8300(11.1)A(133)21체육체육184/88,80(7,3)A(132)190/8820(8.0)A(133)1예술미술288/91.20(6.5)A(132)276/8020(12.2)B(133)1예술음악감상과비평198/87.90(.)A(132)199/84.60()A(133)1경영·금융성공적인직업생활1100/93.10(7.0)A(132)197/91.60(11.0)A(133)1경영·금융상업경제3100/8890(10.8)A(132)399/90.90(10.3)A(133)1경영·금융사무관리4100/95.40(8.0)A(132)496/89.20(14.1)A(133)1경영금융회계원리498/91.00(8.7)A(132)498/88.80(12.4)A(133)1경영·금융금융일반295/90.50(9.4)A(132)299/93.60(8.9)A(133)뒷장계속이수단위합계90602023년12월3일전남여자상업고등학교장담당부서전남여자상업고등학교담당자김보람전화번호062-570-8708전남여자상업고등학교2023년12월3일발급번호F100000163-2023-003258이름최다연</t>
-  </si>
-  <si>
-    <t>문서확인번호:1701-6125-2218-0588(신청인:최다연)첨부24goyjnPage2of21학기2학기학년교과과목원점수/과목평균성취도석차원점수/과목평균성취도석차단위수단위수(표준편차)(수강자수)등급(표준편차)(수강자수)등급2국어국어283/67.50(14.4)A(131)32국어문학285/69.50(17.9)A(130)42수학수학271/63.00(25.6)C(131)52수학확률과통계269/63.40(25.2)B(130)52영어영어279/64.30(22.7)B(131)42영어실용영어296/68.20(.)A(130)2한국사한국사391/77.10(17.2)A(131)4395/75.90(17.8)A(130)22과학통합과학381/70.00(17.4)A(131)4380/71.40(17.2)B(130)42체육체육1100/92.70(6.9)A(131)163/8690(12,6)B(130)2경영·융융기업자원통합관리5100/88.20(14.6)A(130)2경영·금융세무일반489/83.90(11.1)B(107)2경영·금융보험일반292/84.90(9.5)A(42)297/87.00(15,9)A(42)2경영·금융사무행정493/90.70(9.8)A(131)497/88.70(10.8)A(130)2경영·금융회계실무592/90.20(11.3)A(131)2경영·금융세무실무498/83.50(14.5)A(106)2대자진·문화콘텐츠영상제작기초293/85.80(10.3)A(22)285/90.30(16.6)B(21)3국어문학396/76.30(13.1)A(129)13수학확률과통계377/75.60(17.7)A(129)53체육운동과건강285/84.50(8.1)A(129)3기술·가입/제공외국어/한일본어I393/79.30(22.5)A(129)43기술·가입/제조제목(주)한문1283/78.40(13.1)A(129)53경영·금융커뮤니케이션395/91.70(7.4)A(129)3경영·금융세무실무298/88..70(11.6)A(106)3경영·금융창구사무399/92.30(13.0)A(42)3경영·금융보험모집296/86,50(15.0)A(42)3경영·금융토익연습일반395/85.70(10.2)A(129)3디자인·문화콘텐츠방송콘텐츠제작298/83,00(17.0)A(46)3정보·통신파이썬프로그래밍296/82.00(15.2)A(129)전남여자상업고등학교2023년12월3일발급번호F100000163-2023-003258이름최다연</t>
-  </si>
-  <si>
-    <t>과목세부능력및특기사항해당사항없음[3학년]원점수/과목평균성취도학기교과과목학점수석차등급비고(표준편차)(수강자수)국어문학275/78.5(12.6)C(38)6수학미적분367/68.6(15.7)D(38)5기계기계요소설계286/88.5(6.7)B(38)기계발전설비실무592/86.6(5.0)A(38)1에너지산업설비기계995/88.6(6.5)A(38)실무전기·전자전기기기280/89.9(8.5)B(42)자동제어시스템전기·전자393/89.4(7.7)A(38)운영이수학점합계26과목세부능력및특기사항문학:구비설화'어미말과새끼말'을읽고사람이나동물이나자식을향한부모의사랑은똑같다고느낀점을친구들과이야기하며작품을능동적으로해석함.'고3의완벽한휴가(A.J.베츠)'를읽고자신의상황에대입하는서핑을작성함.공부와휴식을조화롭게병행하며자신의흥미와열정을찾아가는과정을솔직하게표현함.미적분:자연로그,삼각함수의덧셈정리,매개변수,음함수에대한뜻을알고여러가지미분법에관한전형적인문제를알려진절차에따라해결할수있음.수학의기초원리를이해하고자노력하며,깨우친원리를문제에적용하여논리적으로해결해나가는모습을보여줌.기계요소설계:관이음방법을알고밸브의종류와특징을이해하고이를설명할수있음.CAD프로그램을다루는기술이뛰어나고기계설계에대한이해력이높아다른급우들에비해도면을분석하고작성하는데있어서탁원한강점을가지고있으며,관련분야의직무를수행함에있어서새로운아이디어를창출하여뛰어난인재로거듭날가능성을가지고있음.[능력단위:동력전달요소설계]공차표시방법에구체적인예를들어대해설명할수있음.동력전달요소의종류와각특징을완벽히이해함.CAD프로그램다루는기술이뛰어나고기계설계에대한이해도가높아도면을분석하고작성하는데있어서강점을가지고있음.또한이를활용하여기계부품을모델링후3D프린터를이용해출력할수있음.발전설비실무:발전방식의종류에대한이해가높으며특히회전운동으로발전되는분야에특히관심을많이가짐.복합발전방식에서내연기관인가스터빈과외연기관인보일러를이용한발전방식의차이점을명확하게이해함.수력발전의개념을이해하고화력발전의발전방식의차이점을구분함.에너지산업설비실무:피복아크용접분야에대한집중력과자세별비드모양의완성도가매우좋으며,배관용접의특징을알고이에알맞은자세로비드를결함없이생성할수있으며,누수가없고완벽한용접이이루어졌으며,직진도테스트에서좋은결과를보이며작업후정리정돈을잘하는학생임.선반의구조와기능에대하여높은이해도를가지고있으며실습시간에주변을항상정리정돈하며안전하게실습함.공구보정에대한이해력이매우좋으며,복합사이클을이용할수있고프로그램의시뮬레이션과실제가공에매우뛰어난능력이있음-범용선반에서사용되는주축대,왕복대,심압대의역할을명확하게이해하고,이를바탕으로실생활에서사용되는가공품을제시할수있음.전기기기:직류발전기의병렬운전에대하여명확하게설명할수있으며,성실한태도로과제수행에임하고교사의지시에적극적으로반응하여과제수행에성실히임함.수업에서제공된자료나교재외에도관련자료를수도전기공업고등학교2023년11월28일11/13반2번호7성명김재우수도전기공업고등학교/2023.11.2815:24/1085.***.226/이호현</t>
-  </si>
-  <si>
-    <t>정확한A진본2023/11/06134351시정확인센터B발급번호:B100000634-2023-002766성적증명서성명:황호남생년월일:2004년03월29일학교:대동세무고등학교학과:세무회계과Pageof1학기2학기학년교과과목원점수/과목평균성취도석차원점수/과목평균성취도석차단위수단위수(표준편차)(수강자수)등급(표준편차)(수강자수)등급1국어국어383/81.80(12.0)B(217)5370/66.80(18.9)C(210)51수학수학378/7370(18,1)C(217)5377/73.00(16.3)C(210)51영어영어492/78.30(166)A(217)4489/77.60(17.8)B(210)41한국사한국사385/79.80(12.8)B(217)5386/82.10(12.6)B(210)51사회(역사/도덕포함)통합사회389/8650(124)B(217)5387/82.90(14.7)B(210)51과학통합과학395/89.70(10.4)A(217)5379/71.10(17.7)C(210)41체육체육296/88.90(6.6)A(217)297/82.60(9.9)A(210)1예술음악감상과비평195/91.60()A(217)189/87.40(.)A(210)1예술미술창작187/87.10()A(217)180/85.40(.)A(210)1기준·가정/제2외국어/한분/교섭사무관리389/86.70(10.0)B(217)5383/78.40(15.7)B(210)51경영·금융회계원리495/84.00(15.9)A(217)498/84.80(17.6)A(210)2국어독서383/82.70(13.0)B(94)6뒷장계속이수단위합계90902023년11월24일대동세무고등학교장담당부서대동세무고등학교담당자박연희전화번호070-8685-5706대동세무고등학교2023년11월24일발급번호B100000634-2023-002766이름황호남본증명의위변조여부(발급일로부터90일이내)및교육민원음성서비스확인방법은「나이스대국민서비스(neiggo.kr)&gt;교육제증명&gt;발급문서진우확인,에안내되어있습니다.</t>
-  </si>
-  <si>
-    <t>Page2of21학기2학기학년교과과목원점수/과목평균성취도석차원점수/과목평균성취도석차단위수단위수(표준편차)(수강자수)등급(표준편차)(수강자수)등급2국어문학388/83.90(13.4)B(95)52수학수학I352/68.60(19.1)E(95)72수학수학II356/68.40(21.1)E(94)62영어영어I473/68.20(18.4)C(95)42체육체육197/84.20(10.0)A(95)197/88.50(9.5)A(94)2예술음악감상과비평198/92.90(.)A(94)2예술미술창작1100/93.80(.)A(95)캐슬·가칭/계2외국어/한B(95)B(94)2P/RP관광일본어285/84.80(14.7)6282/7420(21.9)52경영·금융성공적인직업생활284/79.10(15.9)B(95)286/7820(15.4)B(94)2경영·금융상업경제386/82.80(13.3)B(95)389/77.70(17.2)B(94)2경영·금융회계정보외과시스템299/92.90(9.5)A(95)298/92.50(8.9)A(94)2경영·금융기업자원통합관리391/76.70(15.1)A(95)388/80.10(17.1)B(94)2경영·금융세무일반390/82.10(14.1)A(95)391/81.00(19.7)A(94)2경영·금융비즈니스영어474/71.20(20.4)C(94)2경영·금융회계실무397/94.10(9.8)A(95)396/90.80(12.9)A(94)3국어화법과작문285/80.40(14.2)B(94)5281/68.50(24.5)B(94)43수학확률과통계278/69.50(20.6)C(94)5243/51.30(26.0)E(94)63영어영어Ⅱ480/69.80(18.8)B(94)43체육스포츠생활197/89.50(.)A(94)]97/88.90(.)A(94)3경영·금융기업과경영397/83.20(14.3)A(94)390/63.50(24.0)A(94)3경영·금융비즈니스영어496/65.10(29.2)A(94)3경영·금융커뮤니케이션297/89.50(9.9)A(94)293/77,60(20,2)A(94)3경영·금융사무행정390/85.50(11.1)A(94)3100/8980(13.0)A(94)3경영·금융예산·자금398/96.10(5.8)A(94)399/93.10(11.2)A(94)3경영·금융회계실무296/86.40(11.8)A(94)2100/85.30(19.3)A(94)3경영·금융세무실무391/8560(11.7)A(94)398/81.60(17.3)A(94)3경영·금융중급회계395/75.00(18.9)A(94)384/53.90(29.4)B(94)3정보·통신프로그래밍295/6900(26.6)A(94)296/52.50(30.8)A(94)대동세무고등학교2023년11월24일발급번호B100000634-2023-002766이름황호남본증명의위변조여부(발급일로부터90일이내)및교육민원음성서비스확인방법은「나미스대국민서비스(neisgo.kr)교육제증명&gt;발급문서진위확인_에안내되어있습니다.</t>
-  </si>
-  <si>
     <t>문서확인번호XD2F-FBA6-F201-223B계성적증명서0100009K19102200128호성명:신민영생년월일1995년02월23일입학일자:2013,3.4신입학한양대학교인문과학대학졸업일자:2018,종어중문학과2.23교가구분학년:2013024305부교과구분학위등록번호:한양대X17(여)1122호전공전공교과목명美!전공실제부교과구분교과목명육청성적부2013년도1화기교과목명끼끼끼끼끼끼끼끼게전공수량업분화는춤전공*********3.0행정평균4.13중국바로잡기2.0중국어연극제작실습캠프론디자인2015년도어둠하기......심리학회이며:27221오퍼레이션관리연극의이해경영정보시스템3,0기초중국어연습취득하진6.0영어능력평가하면습(영어본용세내기세미나2015년도2차기정시의야해면피터십(UELPD)영역전문취득하선18.0중국문화미생의이해정평균3.86중국인터분카이어새:고급생명통계2013년도2막기서비스운영관리조금중국어연습캐릭터개발......강남성강남구광주읍중국어든지하않아기E전략특구매관리양가근비타민DHLP25한양사회봉사비즈니스리더십CHELP3)지진과세형취득마진2390446744은은성과인간###4.04중국어읽기타쓰기취득약점2015년도BE15.0지급하기정정제금3.96경제타입문221조직원딜302014년도|하기N중국문화개선......명정명절경험현대중국어문법2016vs과학기술의찰학적이해온라인영어프레젠테이·선(영어전전문학술영어(영어전용)2종금증국이1N2.0현실경제의미에2016MS취득학점16.02타기제자메가의미래청정제금4,03경정보병정정222품질경영2014년도2차기심리학과인지과학2014년09월~2004년12221정면통계유용성과대학원지리가개인정보의이에중국어작문2과학기본(영어전용)www.www.경제집합창창중금중국어2취득확정17.0초급중국어회화2매장391현대중국어독해2017###중국고전위기년도2타기실무중국어221계량정명(영어전용)신청생산이조사장AD취득하여18.0평점평균4.50취득약점5.0원정평균4.302015년도|화가중국고대문학의이해학원누에146.0중국어학의이해###서서사서버에서행정평균4.0774.5중국소실의세계판타점수95.1/100고품중국어:SunnyCumLaulei졸업우수중국근대문화의이해초급독일어성의과학적이해취득약점20.0위의사실을증명함.부주전공구분전공22.0학점교양59.0학점전공30.0학점기초35.0선택일반부전골학점146.0락점누제중어중문학과전공명학위명2019년10월22일27.027.0경영학부문학사한양대학교A+=4.5A0=4.08**1.580*3.0C**2.5교무바코드로본증명서는710c입안교양111:고양필수내용의인터넷으로711:액심교합112:교양선택위·변조발급한여부를712113:교양내림중앙선택교양확인해서입니다.CD-20D+=1.5100%)OF-O721:원공버실주십시오.114:영역교양원인원센터다만,722:121:원본확인전공심의전공변수홈페이725122지(www.webminwon.P-Pauc문서번호전공핵심(필수)전공선택및=학질포기(Withdrawal)132:일반전대141:교칙팀수물치727:전공기초인물com)에발급일로부터H142:교직전공NA=No24시간142:교직선택원본대조180일까지Applicatio751:기초빙수확인이221:부천공원수222부천공원의가능합니다.75%기초패침가능합니다.제출용은칼라프린터진위확인코드:사용을처장4891254291024610013권장합니다.(적인인용)</t>
   </si>
   <si>
     <t>12023-03000720성적증명서농협생명교학대학###학번2018111515생년월일1999년3회26일속복수전공:성명양민석입학일자2018년3월2일학점성적구분이수과목학점성적구분01수&gt;목N성적구분01수과목&lt;&lt;2018학년도1학기&gt;&gt;취득학점3교양한국사3A-평정평균:3.30/4.3백분율:89.00/100교양논란외비판적사고3AO2020학년도승과문화333B+&gt;&gt;:공&lt;&lt;인간과재료A-일선차량운전I(군교육훈련과정공조경학원론B+)393취득학점:15취득학점:3평정평균:3.60/4.3백분율92.00/100평정평균:/4.3백분율/100&lt;&lt;2018학년도2학기&gt;&gt;&lt;&lt;2021학년도2학기&gt;&gt;80를식물균병학양경영의이해:3323333BBBCBBB교양인간과치면A+부부부교부전일식물바이러스병학고양문학과정신분석학전식물병리학실험3333B+양학의이해양인공지능의이해N천전자를B+목재과학의이해日전식물보호학선성격심리학B+를수목확및실습11취득학점:18양산제조공정평점평균:3.41/4.3백분율:90.10/100취득학점:20평정평균:3.1574.3백분율8750/100&lt;&lt;2018학년도계절학기(동계)&gt;&gt;교양영화로만나는러시아와동&lt;&lt;2022학년도1학기&gt;&gt;유럽문화C+부부부부전전전진전전응용생명과학개론3333333취득학점:3식물검역실무평점평균:2.30/4.3백분을79.00/100식물생리학개론세포생물학&lt;&lt;2019학년도1학기&gt;&gt;실습:조림학,및교양호신술마이아마마마마산림경영학및실습교양학습설계취득학점:18wwwww-전공NG수목확및실습1평점평균:2.81/4.3백분을8410/100전공수목생리학및실험00삼림측량학및실습&lt;&lt;2022학년도2학기&gt;&gt;상징근중확및실점알선FORESTPHYSIOLOGY(스페인삼림동계학및실습에이다대학교)취득학점17일선RANGERESOURCESINTHE평점평균:3.11/4.3백분을87.10/100BERIANPENINSULA(스페인예이다대학교)&lt;&lt;2019학년도2학기&gt;&gt;알선METHOOSANDAPPROCHESOF교양현대지리학의이해3B+SOCIALRESEARCHINENVI교양인문과예술로만나는삶과ROMENTALMANAGEMENT(스페인성3B+인예이다대학교)2교양글로벌다문화인재리더선SPECIALTOPICSINECOLOGUNIVERSITY십3A+Y(스페인예이다대학교)2산림자원조사론및실습취득학점:불을공3AO8산림휴양관리학및실습3평점평균/4:3백분율:/100취득학점:15평정평균:3.84/43덕분을94.40/100총취득학점:120평점평균3.27/4.3백분율:8870/100&lt;&lt;2019학년도계절학기(동계)&gt;&gt;교향대학금쓰기3日中과구분교양공기초-N2연계진공동한전금전공실화학점45b7착공기준,전용###HD###2019#DISACD-2.0(74-76)(0)위의사실을승망합니다2023년28일경북대학교총6.3.1.집중위·변조방지용원본대조코드3643405416123642특허10-1039390</t>
   </si>
   <si>
-    <t>계2023-0103746호성적증명서성생학명:신은경대학:생명과학대학입학일자:2018년3월1일원일:1998년10원7일학부(학과):식품생명공학과졸업일자:2023년8원16일번:2018101755전공:식품생명공학학위등록번호:경희대2022(학)05757학위명:이학사이수구분교과목명교강사명학점성적비고일소분교과목명교감사명학점성적비고2018학년도1학기미분쩍분하]박정준3.0CO하하1서명구3.0R2021학년도겨울하기]생물1이상원3.0R16글쓰기2이소정2.0빅뱅에서문명까지김민식3.0B-17소프트웨어백사를한치근3.0인간의가치담색유병래3.0있는신입생세미나1박명진1.0취득하옘:5.0평형평균:3,940덕분을96.90취득하점:10.0정정제금:2,470매분81.192022학년도1학기|5식품생명공학캠스본자인1김우기3.0PAP는[2018학년도2학기16교육심리학한지수2.0일반물리송현석취·창업스쿨(생명과학분야)유재호!!Rp3050FOF82.0생물2김기영311일반물리이나영3.0우리가사는세계이병수15투철글의인류사:전쟁과정화유재명3.0핫즈수화문제:문명윤바꾼수리적발전김진홍3.015고전읽기:박정리도지김연숙3.016글쓰기!송영은2.017지구를생각하는예술백수희16시민교육이될위171:0K.3:창업과기업가정신김진상17전공탐색세미나김영옥취득학점20:0경점평균:3.829194취득하점:15.0정정평균:3,407덕분읍91.572022학년도2타기]12019학년도1학기1식품미생물학Ⅱ및실험박원석3.0CAPPPODFA생물유기화학4김지불중부주차별식품공학2이민혁3.05식품학개든이받효미생물공화박원석3.011화학1이+한화란식품생명공학랩스톤디자인2김우기3.011생물]하선식졸분자생들학김태주3.0En15언어파문학의이해이매불교과정신분석학신은희3.0경희사이버대학교(한국)15한의학과동의발견(경의시이래)취득액점:18.0평점평균:3,000EK7.94취득학점:15.0평정평균:2,8802023학년도1학기]대학영어(면제)|2019학년도여유하기졸업논문(식품공학전공)김우기네트워크티미래17:식품물리화학이민혁3.017후다니타스특강1연구연수활동1(식품공하)김우기1.0식품공학]이진혁3.0취득득점:4.0평점평균:3,000:식품영양학김영록3.080800805면역학강창중3:85그림속의인문화김소희2020학년도2학기식품평화학1555김혜영8672취득하점16.0평점평균:3.120비불88.53식품과건강식품위생학김영수총취득학점:130.0취득학점:9,0평점평균:2,900백분율:86.00총평점평균:3,200/4.3(3.42/4.5)분#89.31/100이하이제[2021학년도1학기1식품성화학2정종현"""3.038080478식품화학I김우기3.04655555식품미생물학]및실험박천석3.0식품나노과학개론김명록3.0식품학개든백무원3.0바이오기능성식품소재김태옥3.080식품공학1김병용3.0R취득학점:18.0쟁점평균:3.383백분율:91.34이수구분:1-기초고양2=통합교양3.건물교양5-전공필수5.전국선택6=교직8=일반선배배분이수교과17=자율이수20=교[격[전선]21-28*지절학기32=대학원·성적등급및행정:A+=4.3AD-4.0A-3.7B+3.380-3.0B-2C+2.3CO=2.0C-=1.7D+=1.3DO=1.0N(F)=Non-Pass.비고:En=영어강좌Ex-교환학생/학점교류N=학점포기R=제수강위의사실을증명합니다.2023년11월29일경희대학교교무[인터넷발급]우리대학및YAY원본대조메뉴에서인터넷100이내)포레스마트폰중딩시하단의CR코드를촬영하여원본대조파인가능.스마트원본대조업은#전산다운받을수있습니다위·변조방지용(Internetno)3245251621503491특허10-1039390원본대조코드</t>
-  </si>
-  <si>
     <t>문서확인번호XD4C-981B-847F-8E68성적증명서학번201611644대학사회과학대학학위명학위증서번호학위등록번호성명유재윤(남)학부/학과/전공경제학과경제학사제199076.02021학4403생년월일1997년6월10일입학일지2016년3월2일졸업일자2022년8월22일조기졸업1학기단축교과목명학점성적교과목명학점성직교과목명학점성적2016년도1학기2020년도1학기취득학점:17취득학점누계110기교컴퓨팅적사고A심교LET'SGO지리여행평점평균:평점평균누계:3232A+4.24.3심교인류학입문A+심교음악의이해2A+백분위:96백분위누계:97지교경제학원론1A+일선알기쉬운화정품과피부고학이1P석차:29/132지교기초수학3A야기2022년도1학기지교마초통계학3A+전선경제정보처리33333서서서서심교디지털영상창작2B+지교진로및취업설계11P전선노동경제학항공서울의역사와문화2A취득학점:15취득학점누계:15전선재정학교예술과리빙트렌드2H평점평균:4.28평점평균누계:4.28전선전략과게임(E)전선국제금융시장론3A+백분위:96.8백분위누계:96.8전천화폐경제학A+전선국제무역론3A석자:11/130취득학점:20취득학점누계:74전선중급미시(E)3A+기고비판적사고와토론2017년도1학기3A+평점평균:백분위:4.5100평점평균백분위누계:누계:4.2996.9취득학점:평점평균:4.215취득학점평점평균누계:누계:4.29125석차:1/107심교영화외공연예술의이해2At백분위:96백분위누계:96.9삼교현대인의필수금융법2020년도2학기석차:35/117세대전선경제수학23333삼교인물로본이국사2A+전선미시경제학A+삼교현대문화와기호의세계2A+전선회계와경제A+전선개방거시경제학3A+지교무역학원론A+전선금융시장과투자분석방법론(E3A+지교진로및취업설계21P)취득학점:20취득학점누계:35전선산업조직론3A+평점평균:4.34평점평균누계:4.31전선자본시장이론3A백분위:97.4백분위누계:97.1전선중급거시3A+석차:3/110취득학점:19취득학점누계:932017년도2학기평점평균:4.42평점평균누계:4.32기교대학영어10P백분위:98.4백분위누계:97.2석차:11/135기교진로설계와직업탐색2P심교야수사회의공익과공공인재2B+2021년도2학기일선논리학3B+기교대학도이치어3A전선거시경제학3A+심교건학이념과성공적인대학생활1P전선계량경제학3A+삼교교양을위한한문2A+전선후생경제학3B+심교대학생이알아야할정부경영2A+지교경제학원론23A+심교인간행동과사고의심리학2A+취득학점:19취득학점누계:54일선최신환경문제의이해1P평점평균:4.02평점평균누계:4.22전선도시및지역경제3B+백문위:94.2백분위누계:96.2전선재무관리3A+석차:28/126*성적등급A+:4,5(100-95)A:4.0(94-90)B+:3.5(89-85)8:3.0(84-80)C+:2.5(79-75)C:2.0(74-70)D+:1.5(69-65)D:1.0(64-60)F:0(0)P:PassN:Non-Pass*E=영어강의,F=프랑스어강의,G=독일어김의I.C=중국어강의,H=히트리어김의_j=일본어강의IR.리시아어강의J-학생대상강의.W=독학점포기**[드림학기/과목명:드림학기설계]한학기동안수업대신자기주도프로젝트수행결과를토대로학점을인정받는교육과정임**증명서상전공은재학중에는전과등으로변경될수있으며,졸업년월일이후발급분에한하여확정되는사항임위의사실을증명함2023년11월29일건국대학교교무증명시:인터넷으로발급한증명서로서,캡조기가능(발급필라프린터출력을권광</t>
   </si>
   <si>
@@ -294,16 +249,10 @@
     <t>*원본확인번호:883D-5802D-1CB4-FB621제2023-105508호성적증명서발급일자:2023년11월28일대학외국어대학학부(과)영어과학번20083663성명정난지생년월일1989년11원24일입학일자2008년3월3일졸업일자2014년2월25일학위명문학사학위번호조선대2013학2385호증서번호계152478호복수전공경영학부연계전공부전공특별전공이력사항CU나노인중융합전공구분교과목명학점성적구분교과목명학점성적구분교과목명학점성적2008년도1학기61인샬라!우리는지금아으로3NO평점평균:3.9506삶과글2B+간다2011년도하계계절학기생활영어1AO신청학점:15취득학점:1521고급영어회화실습22」06107건강과생활2B+평점평균:3.83신청학점:2취득학점:207교양일어12B+2010년도1학기평점평균:4.522영어실습12B+22무역대리점실무13B+2013년도1학기소비자행동론AO22영어문법3BO5%306대학영어2A+경영학원론3A+07컴퓨터의이해와인터넷3AO신청학점:12취득학점:1252마케팅관리론3AO07컴퓨터활용3AO평점평균:3.4252조직과인간행동3A+영어학개론223서2008년도2학기61지구에서만나살아가는남자와3A+22영미희곡의이해306TOEIC3B+여자22영어구문과해석3No06생활영어21B+07국제문화와영화3AO신청학점:18취득학점:1852경영전략307여성과대중문화2B+평점평균:4.1761영국생활과문화3M2010년도2학기61인간심리의여행3A+21초급영어회화22B+07국제관광의이해5A+22영어실습22BO신청학점:26취득학점:2607CS전문가과정P22영어독해23B+평점평균:4.3352증권시장론3B+신청학점:16취득학점:1652인적자원관리3A+신청학점제:142.0평점평균:3.5352리더쉽3A+2009년도1학기52마케팅조사3B+취득히점계:142.021초급영어회화실습12AO61이미지관리와커뮤니케이션3A+룅점계:550.5021중급영어회화13BO신청학점:20취득학점:20평점평균:3.93/4.5영어독해12B+222평점평균:4.17백분율환산점수:93.49영문학개론3BO61글로벌리더를위한글로벌매너3AD2011년도1학기전학년석차:5/4221고급영어회화실습12B+신청학점:13취득학점:1322현대영미희곡340평점평균:3.4652인적자원개발3A+2009년도2학기52국제마케팅3B+07약과건강2B+52중소기업과창업3B+07그리스신화의세계2A+52인간관계관리론3A+07세계문화기행3AO61자기관리와신용3AO21중급영어회화23B+신청학점:20취득학점:2022영문범이해2B+조선대학교교무처학점신청학점계교양전공교직취득학점부전공다전공자유선택취득학점계평점계평점평균백분율환산점수현황142.036.046.00.00.039.021.0142.0550.503.93/4.593.49이수구분:교양과정(01-01.11).전공과정(20:전공기초,21:전공필수.22:전공선택),교직(31),부전곰(40.41)복수전공(51.52),연계전공(71.72),특별전공(75).자유선택(61)성적구분:A+(4.5:95~100),AD(4:90-94),8+(3.5:85-89),80(:80-84),C+(2.5:75-79),00(2.0:70~74),0+(1.5:65-69),00(1:60~64).F(0:0~59),P(PASS)다전공:복수전공,연계전공,융합전공,CU나노인증합산학점Pass,NonPass과목은평점평균계산시포함하지않음.https://chosun.icerti..com/icerti/compare.jsp*에접속하여증명서원본확인번호를입력하면증명서원본대조및유효성을검증할수있습니다.QR코드를이용하면더욱편리합니다.(발급일로부터180일이내)원본확인번호:883D-5802D-1CB4-E13621조선108thlocom</t>
   </si>
   <si>
-    <t>제2023-0106209호성적증명서입학일자:2003년3월3일성생학명:김민구대학:전자정보대학월일:1984년11월26일학부(학과):전자정보학부졸업일자:2010년2월17일번:2003200035전공:전자공학학위등록번호:경희대2009(학)02738학위명:공학사구분이수교과목명교강사명학점성적비고일소교과목명교강사명학점성적비고[2003타년도1학기]서양의역사회문화김영진3.0A-심리학개론최승희3.0BO2007학년도2하기|2인터넷과사이버스페이스정경숙3.0AO4전자회로실험김상원2.0A-2북구김은식1.0BO5ASIC설계실험송문빈2.0AO2현대생활과체육전진호2.0BO5Windows프로그래밍이대호3.0BO논리회로박세제3.0BO5반도체공학박찬봉3.0BO폴리학및실험1성유제3.0B+5전자회로!!홍상훈3.08-미분적분학1김광환3.0A+5컴퓨터네트워크이대영3.0BO8공모전과함께하는멘토링김양수2.0P취득학점:21.0평정평균:3,471백분율:92.17취득학점:18.0평점평균:3,156백분율:88.882003학년도2학기]김진용2008하년도1학기]2기초대학수학3.0MMMMM12동양의역사와문화오일환3.04자료구조체육삼3.0Activ객체지향프로그래밍이대호3.04졸업연구백운식2.0기초미분방정식최진혁3.05VLSI설계홍상훈3.0미분적분학2국헌05영상신호처리박영태3.0A-5자문제어김상원3.0B+취득학점:15.0평정평균:3.000덕분을:5전송선이큰김인식3.0B+5마이크로프로세시김동한3.0A-En대학과사회봉사1.0R:[2004학년도1학기]생활의지혜김민현1.02영어단편감독이윤성2테니스(교양)주창남취득확정:22.0평점평균3,580백분율:93.203선형대수변희영4기초회로실험조선호2학기5신호와시스템정환웅2009학년도I졸업눔택인증(외국어)P취득학점:12.0평정평균:3,1832웨이트드레이닝(교양)전중복1.0NO2경계축의이해박원규3.04고급객체계양프로그래밍이대호3.0A+En2학기졸업논문(전자공학전공)홍인기P[2004학년도12사회학개론최병묵기초스페인어(경외사이퍼)3.0B+2생활과법률고백근8현현연수원동(개인)1.0P물리학및실험2엄승BellorM3555디지털신호처리김진中美中美美中美산美CCPanda취득학점:11.0평점평균:3,880백분율:80.73디지털회로설계디지털회로실험여정총취득학점:140.0취득학점:18.0평점평균:3.372덕분을총평점평균3,427/4.3(3.66/4.5)분을:91.76/100.이하여백[2007학년도1학기1전자기학|임용운전자회로I홍상훈3.0회로이론박찬봉3.05DSP실험남대성2.0BD5물리전자정완수3.0B-5컴퓨터구조박영태3.0!S화물및랜덤변수김정근3.0취득약정:20.0평점평균:3,645백분율:93.81[2007학년도어름학기]21프로그래밍입문김경훈3.0AO취득약점:3.0평점평균:4,000택분율:97.676m교직8일일선선택14=중학교과15*배분이수교과16=기초교과·여수구분:1기기초교양2=풍합교양3=전골교양4=전공필수소드림머신리11*전공기초17=자유이수20교지(전선)21-28=계절학기·성적등급및평점:A+=4.3AO=4.0A-3.7B+*3.3B0=3.0B-2.7C+=2.3CO-2.0C-1.7D+=1.3DO-1.0D-0.7F=0P=PassN(F)=Non-Pass·삐고:En=영어강좌Ex=고환학생/학점교류해점포기R=제수강위의사실을증명합니다.2023년12월2일경희대학교교무[인터넷만금우리대학및---certaia.com원본대조메뉴에서인터넷담합번호로입력(발급일로부터90일이내)또는스마트폰원본대조립(1of1)증명서하단의OR코드를존영하여원본대조라인가능,스마트원본대조앱은앱스토어/마켓에서원본대조로검색다운받을수있습니다.위·변조방지용원본대조코드(Internetno)3643425422353633특허10-1039390</t>
-  </si>
-  <si>
     <t>·원본확인번호:DE6E-6827F-B982-DC162제2023-107013호성적증명서발급일자:2023년12월02일대학외국어대학학부(과)프랑스어권문화학과마번20183235성명선세희생년월일1999년9월5일입학일자2018년3월2일졸업일자학위명하위번호증서번호복수전공부전공연계전공특별전공이력사항CU나노인증융합전공구분교과목명학점성적구분교과목명학점성적구분교과목명학점성적2018년도1학기06생활영어1B+06사고와표현106신입생세미나:06자아의발견과진로탐색1P21글로벌영어1F22기초프랑스어12B+22기초프랑스어회화124022한불통번역기초1215422프랑스어발음연습/M글로벌문화프랑스어12신청학점:17취득학점:15평점핑글:3.5얌신청학정계:17.0취득학점계:15.0평점계:52.50평정평균:3.50/4.5백분율환산점수:88.57전학년석차14/37KKO☆조선대학교교무처취득학점평점계평점평균백분몽환산점수학점신청학점계교양전공교직부전공다전공자유선택취득학점계현황17.05.010.00.00.00.00.015.052.503.50/4.588.57이수구분:고양과정(01-017.11)전공과정(20:전공기초,21:전공필수.22:전공선택),교직(31),부전공(40.41)복수전공(51,52),연계전공(71.72),특별전공(75).자유선택(61)성적구분:A+(45:95-100),AO(4:90~4),B+(35:85-89).80(3:80-64)C+(2.5:75-79),00(20:70-74)D+(1.5:65-69).00(1:60-64).F(0:0-59),P(PASS)다전공:복수전공,.연계전공.융합전공,CU나노인증합산학점Pass.NonPass과목은평점평균계산시포함하지않음.https//chosun.icerticom/icerti/compare.jso이접속하여중앙서원본확인번호입력하면증명서원본대조및유효성을검증할수있습니다.QR코드이용하면더욱편리합니다.(발급일로부터180일이내)원본확인번호DEXE-6827F-B082-0C162</t>
   </si>
   <si>
     <t>문서확인번호XD92-EC6D-0818-2A9EVONSEIUNIVERSITY션1885A세대학성적증명서제CME-479307호학번2012253035소속과학기술대학컴퓨터공학성명서우현증서번호212991입학일자2012.3.1.생년월일1993,3,9,학위등록번호연세대2018(학)5392학위수이일자2019.8.30전공과학기술대학컴퓨터공학연계전공학위명공학사부전공교과목명하징성적교과목명학점성적2012학년도1학기진로설계와상담0NP0NP공공가치와정책3B+제품日+교양영이12C+공업수학(I)3리더십개밥2NO신청:15취득:15평균:3.04누계취득:SS평균:2.91ResidentialColloquia(IT기업의성공과실패분석)1A0신청:5취득:5평균.3.322016학년도이류학기일반생물학및실험(1)32학기C2012학년도신청:3취득:3평균:2.30채플0NP누계취득:S8평균:2.88교양영어Ⅱ2B-2016학년도2학기리더십실습2A+논리의료설계3al서양문화의유산3C+신호및시스템2일반물리학및실험(2)3C-마이크로프로세서3영양신청:10취득:10평균.2:60데이터통신3누계취득:15평균:2.842013학년도1학기임헤디드와드웨어설계3진로설계와상담0NP제품0P컴퓨터프로그래밍3B+RC진로설계1A-이산구조3C누계신청:18취득:취득:1876평균:평균:2.672.00신청:4취득:4평균:2.65누계취득:19평균:2.802016학년도겨울학기2013학년도어름학기글쓰기3B+미분복분학과액티해식(2)3B+교양영어III2B0신청:3취득:3평균:3.30신청:5취득:S평균:3.18누계취득:22평균:2.87누계취득:81평균:2.702013학년도2학기2017학년도1학기데이타구조론*3B-현대사회의데이팅과결혼3B+제품P프로그래밍언어구조론3메이P이어P중국사개실3가독교와현대사회303고양영어IV7B해외산업조사연구BC경력개발1AO객체지향프로그래밍3연극의이해3180임페디드시스템3미분객분학과벡터해석(1)3B-제품0신청:15취득:15평균:2.83진로설계와상담0NP누계취득:37평균:2.85신청:18취득:18평균:2.182015학년도겨울학기누계취득:99평균:2.622017학년도2하기일반물리학및실험(1)3BOC+신청:3취득:3평균:3.00인공지능3누계취득:40평균:2.86알고리즘분석3CO2016학년도1학기데이터베이스3B+CP의로이론31IT현장실습(1)컴퓨터구조론3BOIT현장실습(2)1PUnix시스템3B+진로설계와상담0P채플0P다음장계속*학점등급및체계(입학년도기준)위의사실을증명합니다.1960이전:A-100-90,B-89-80,C-79-70,D=69-60,F=59-01961-1996A=4,B=3.C=2D=1.F=02023년11월29일1997이후:A+=4.3,A0-4.0,A-3.7B+=3.3BO=3.0B=2.7C+=2.3,CO-2.0.C--1.7.D+=1.3.D0-1.0D=0.7연세대학교교무체F=0P.금,NP.낙,W:철희,WE:재난위기학기수강철회,S:충족,U:미흡연세대학교03722서울시서대문구연세로50Tel(02)2123-2114http//www.yonsei.ac.krYONSEIUNIVERSITY50Yonoci-taSeadormulaSeoul03722KoooaTel(02)2123-2114https://wwwyouseiac.co증명서는인터넷으로발급한증정서로시,연세대학교체증명홈페이지에서원본확인문서번호를동레원본대조가가능(발급후1년간)·제중용은칼라프린터쓸때을권장</t>
-  </si>
-  <si>
-    <t>한국방송통신대학교MAJOROHICKI「원본확인문서번호:XD59-37D5-4540-8168]성적증명서1/1성명전성은학과(부)컴퓨터과학과학번201934-364573생년월일1991.01.27.(복수전공)없음최등록학기종2020년도2학기(복수전공)학위명이학사없음입학일졸업일2021년2019년03월08월02일25일학등록번호위방송대2020학-18884구분교과목명학점성적구분.교과목명학점성적구분교과목명학점성적*인정학점*진공컴퓨터구조3A+교양36전공JSP프로그래밍3A+전공34전공HTML53A+일선0전공인공지능3A0합계70신청학점:18취득학점:18&lt;2019학년도1학기&gt;교양원격대학교육의이해1P평점:79.5평점평균:4.4전공Java프로그래밍3Ct&lt;성적합계&gt;전공디지털논리회로3D+교양:40전교:0교양소계:40전공C프로그래밍3AO전공:97일선:3봉사:0전공데이터베이스3C+총취득학점:140복전:0연필:0연선:0교직:0전공운영체제3C+총평점:235.5신청학점:16취득학점:16총평점평균:3.4/4.5평점:39.0평점평균:2.6총점환산점수:88.0/100&lt;2019학년도2학기&gt;졸업학력평가:2021년합격전공C++프로그래밍3C+이하여백전공자료구조3C+전공프로그래밍언어론3C0전공(NIX시스템3B0전공컴파일러구성3B0신청학점:15취득학점:15평점:39.0평점평균:2.6&lt;2020학년도1학기&gt;교양컴퓨터의이해3A+전공HIML웹프로그래밍3A+전공컴퓨터보안3A0전공소프트웨어공학3A0전공정보통신망3B0전공알고리즘3co일선데이터정보처리입문3AO신청학점:21취득학점:21평점:78.0평점평균:3.7&lt;2020학년도2학기&gt;전공컴퓨터과학개론3A+전공멀티미디어시스템3A+제062023H-0236965호위의사실을증명함.2023년11월29일한국방송통신대학교P학업성적평가기준(물품,명청,설정현업):A+4.5100-95AD1.094-903H5.589-65BO:.084-80C+2.579-75CO2.074-70D+1.5:"CROS[구분]교양:일반교양.전교:전공기초교양,전공:소속학과전공,열선:일반선택,:본부본공학과전공(복전),◆:연계전공필수(연필),◇:연계전공선택(연선),교적:교적전공.과정:학사학위과정본증명서는한국방송통신대학교에서발급되었으며http://certi.krou.ac.kr/0cy.isD"에접속하여상단의증명서"원본확인문서번호"를입력하면증명서원본대조및유효성을검증할수있습니다.(90일간유효)</t>
   </si>
   <si>
     <t>문서확인번호XD87-1E0F-30EF-E757YONSEIUNIVERSITYCO1a세대학성적증명서제CME-480326호학번2017182053소속교육과학대학교육학과성명강지윤증서번호235886입학일자2017.3.1.생년월일29987.6.학위등록번호연세대2022(학)4980학위수여일자2023.8.25.전콩교육과학대학교육학연계전공학위명문학사부전공교과목명학점성적교과목명학점성적2017학년도1학기누계취득:67평균:3.42제품(A)0.5P2021학년도1학기기독교와세계문화3C+리더십워크숍3P고급대학영어II2A+외교통상투자분쟁해결사태연구3사라사시현대사회와심리학3B+학교교실의현장연구방법입문3디자인과문화3B0세계화와교육환경*3일상생활의과학기술(명예특임교수강의시리즈)3B0스페인어(2)3HOLISTICEDUCATIONI-중학생도요렌토링캠프1P신청:15취득:15평균:3.75TONSEIRC101·교육학부1P누계취득:82평균:3.48RC자가주도활동(1)0.5P2021학년도2학기신청:17취득:17평균:3.10비교교육학3사와와2017학년도2학기기업교육론3그리스·로마고전진종탐구3B+교육의인류학적탐구3제품(B)O.SP상담심리세미나3M글쓰기3A+채플(D)0.5P고급대학영어|2A0한국근현대사3AD현대사회의법과권리3B+골프1P대중음악의이해3AD신청:16.5취득:16.5평균:3.72HOLISTICEDUCATIONII-BODYFORLIFE1P누계취득:98.5평균:3.52RC자기주도활동(Z)0.5P2022학년도2학기신청:16취득:16평균:3.76교수방법론3&amp;누계취득:33평균:교수학습이론3.433Co2017학년도기울하기교육행정/정책문제세미나3스페인어(1)3BMWHRD와성인교육3&amp;신청:3취득:3평균:3.30마음교육론3AD누계취득:36평균:3.42법치국가의행정과법3AD2018학년도1학기신청:18취득:18평균:3.62미래를위한교육학3BO누계취득:116.5평균:3.54프로그램평가방법3B+2023학년도1학기우리교육의어제와오늘3B+한국교육사3B+불교와동서문화교류3B+성격심리학3M+프랑스문화와예술3B+행정법(1):행정법총론3SGB미래여성인력과사회혁신3P제품(C)0.5P신청:18취득:18평균:3.24신청:9.5취득:9.5평균:3.80누계취득:54평균:3.36누계취득:126평균:3.552019학년도2학기교육행정업문3A+평양평균=3.55/4.30우주의이해3B환산점수-92.9/100유럽도시문화공간으로읽는액사3B+4.50환산평균-3.76한문(1)3A+연세정신과인권1PG8:S/U평가제도교과목신청:13취득:13평균:3.65*영어로진행된교과목다음장계속·학점등급및체계(입학년도기준)위의사실을증명합니다.1960이전:A+100-90B-89-80,C=79-70,D-69-60,F=59.01961-1996A=4B-3.C=2D=1.F=02023년11월30일1997이후:A+=4.3.AO-4.0A-3.7B+=3.3.B0-3.0,B-2.7C++2.3,CO-20C=1.7,D+=1.3,DO-1.0,D-0.7P=0연세대학교교무처P:급,NP:나W:철회,WE:재난튀기학기수강철회,S:종족,U:미츄연세대학교03722서울시서대문구연세로50Tel(02)2123-2114http://www.yousei.ac.krYONSEIUNIVERSITYYousei-eu,SerdarmaSeoul03722KcecaTel02121252114https://wwwyouwiki.co·본증명서는인터넷으로발급한증명서로서,연세대학교원본대조가가능(발급후1년간)제출용은칼라프린터출마을권장.위본과의문서번호를美美</t>
@@ -319,6 +268,26 @@
   </si>
   <si>
     <t>제2023-0059553호성적증명서학번:2011905011대학:상경대학입학일자:2011년3월2일성명:김민미학부(과):국제무역통상학과졸업일자:생년월일:1992년4월15일학년:4학년학위등록번호:전공:국제무역통상학구분교과목명학점성적구분교과목명학점성적구분교과목명학점성적((2011학년도1학기))((2014년도하계계절수업))기초교양중혁[3]실용영어(1)사회와가치2.082.08자유선택자유선택유라시아의민족과문화유럽의역사와문화2.0B+3.08+허득하청:4.0평균평점:3.000평균평점:3,500취득학점:5.0기초교양실용영어(2)((2012학년도2학기))2.08+((2014년도동계계절수업))복수전원경영과학3.08+자유선택일본문화의이해(2)3.08복수전공광고본3.0C+중액[7]클래식음악의이해2.08+취득학점:6.0평균평점:3.000작:교양교양현대명운동해자기관리와경력개발2.082.0P"2016학년도1학기))취득하정11.0평균제점:3,222연계전공중급BusinessEng!3.08+((2013학년도1학기))전공국제무료보험3.08전공필수무역상무튼3.08전공3.0Ma공필수국제경제학3.08+복수전멸마케팅원은3.0.8+전국제경영2.0M기6교양창의적금융감정2.0AOE기A교양실용영2.0P@x진공업줌의무연구(Pess)ZOPO[E]美中N.#X3.08품목자유(1)선택일본문고양프랑스어(1)화의이해(1)3.0.8+2.085美삼겹영어~특마수20.0평균평점3.GANT3,833품목(6)경제의이2.094중액(8)취득심리치료박점:22.0평균제점:2.03,425B+((2016년도하계계절수업))전공서비스대규원3.0B((2013학년도2하기})전공취득하점결제된점3.0B43,500자유선택일어회화(2)3.08+DIO[J]자유선택해외전공연수(일어일문)2.0°P창의적글쓰기(2)2.08김종교양교양실용명어희화(2)2.0FO[E]종혁[2]고양품국어(2)2.08+자유선택밀착형학습나눔공동체((月日)1.0P별(오늘의요리)]취득학점12.0평평생점:3.357TY:((2013년도하계제전수염))경성대학교복수전공노사관계론3.08+취득학점:3.0평균평점:3,500((2013년도동계계절수업))기초교양실용영어(3)2.08기초교양실용영어(4)2.08+쇄독학점:4.0평균평점:3,250((2014학년도1학기))잘유선택금동시장3.08공국제재무관리3.0C+E공무역통상관계법3.08불(전골)경제학원은3.08+X유교양사회봉사활동(1학점)1.0P취득학점13.0평균평점:3.000((2014학년도2학기"무역계약실무3.0C천천천공공될수수해상보험은3.0C+글로벌비즈니스이슈2.0A전공재무관리3.0C+:전공소비자행동3.08+~a:무역학원은3.0M+위해9INat비즈니스전산3.0B+허특작점20.0평균평점:3,175총취득학점:126.0총평균평점:3.346/4.5백분율:87,460석차:*성적등급:A+(4.5)A(4.0)B+(3.5).B(3.0),+(2.5),C(2,0),D+(1.5),D(1.0),F(0.0)·설점100-9594-9089-8584-8079-7574-7060-6564-6059-0.연정과목등급PS:Pass(Superior)90점이상100점,PA:Pass(Advanced)80점이장90점미만60점이상80점폐막Non-Pass60점미만·위교과목뒤에표시된영문자중ICI는중국어,IEI는영어,IFI는프랑스어,ICI는독일어,[J]는일본어위의사실을증명합니다2023년11월29일경성대학교총|인터넷발급]우리대학및eripia뒷폰태조예능에서인터넷920-5스파트원원본대조원으로증대서마단의OR코드를판정하여뒤부대로美中가능스마트中美1수있습니다.위·변조방지용원본대조코드(Internetno)37276064502036671특허10-1039390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국방송통신대학교MAJOROHICKI「원본확인문서번호:XD59-37D5-4540-8168]성적증명서1/1성명전성은학과(부)컴퓨터과학과학번201934-364573생년월일1991.01.27.(복수전공)없음최등록학기종2020년도2학기(복수전공)학위명이학사없음입학일졸업일2021년2019년03월08월02일25일학등록번호위방송대2020학-18884구분교과목명학점성적구분.교과목명학점성적구분교과목명학점성적*인정학점*진공컴퓨터구조3A+교양36전공JSP프로그래밍3A+전공34전공HTML53A+일선0전공인공지능3A0합계70신청학점:18취득학점:18&lt;2019학년도1학기&gt;교양원격대학교육의이해1P평점:79.5평점평균:4.4전공Java프로그래밍3Ct&lt;성적합계&gt;전공디지털논리회로3D+교양:40전교:0교양소계:40전공C프로그래밍3AO전공:97일선:3봉사:0전공데이터베이스3C+총취득학점:140복전:0연필:0연선:0교직:0전공운영체제3C+총평점:235.5신청학점:16취득학점:16총평점평균:3.4/4.5평점:39.0평점평균:2.6총점환산점수:88.0/100&lt;2019학년도2학기&gt;졸업학력평가:2021년합격전공C++프로그래밍3C+이하여백전공자료구조3C+전공프로그래밍언어론3C0전공(NIX시스템3B0전공컴파일러구성3B0신청학점:15취득학점:15평점:39.0평점평균:2.6&lt;2020학년도1학기&gt;교양컴퓨터의이해3A+전공HIML웹프로그래밍3A+전공컴퓨터보안3A0전공소프트웨어공학3A0전공정보통신망3B0전공알고리즘3co일선데이터정보처리입문3AO신청학점:21취득학점:21평점:78.0평점평균:3.7&lt;2020학년도2학기&gt;전공컴퓨터과학개론3A+전공멀티미디어시스템3A+제062023H-0236965호위의사실을증명함.2023년11월29일한국방송통신대학교P학업성적평가기준(물품,명청,설정현업):A+4.5100-95AD1.094-903H5.589-65BO:.084-80C+2.579-75CO2.074-70D+1.5:"CROS[구분]교양:일반교양.전교:전공기초교양,전공:소속학과전공,열선:일반선택,:본부본공학과전공(복전),◆:연계전공필수(연필),◇:연계전공선택(연선),교적:교적전공.과정:학사학위과정본증명서는한국방송통신대학교에서발급되었으며http://certi.krou.ac.kr/0cy.isD"에접속하여상단의증명서"원본확인문서번호"를입력하면증명서원본대조및유효성을검증할수있습니다.(90일간유효)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적증명서제2023-160206호전북대학교학번201610381성명방하림생년월일1997.10.13.입학2016.3.2졸업2021.2.22소속공과대학신소재공학부(전자재료공학학위공학사교육인증제2전공부전공학위등록번호전북대2020(학)0619연계전공융합전공졸업자격인증영어.컴퓨터인증구분학과목학점성적백구분학과목학장성적:구분학과목학점성적&lt;2016학년도1학기&gt;&lt;2018학년도1학기&gt;교양글쓰기3.0교양경영과창업의이해3.0A교양대학수학2.0기및진로개발및상담0교양모험과정의1.0전진전일일반도체재료3.050시608교향생활속의물리3.0원세라믹스공학13.0교양실용영어(영어강의)3.0다시마다선선선신재생에너지실험3.0교양초급물리학!!스포츠심리학3.0교양최학기초광산교육경영은3.0기림진로개발및상담0학점:15광전광고:3.00학점:16명절명균3.20환산점수:82.9환산점수85.1&lt;2019학년도2학기&gt;&lt;2016학년도특별여통학기&gt;기전전전진전일월롱신전선전선진로개발및상담수학1ON···...다다다시금속재료학R일반물리학1만도체스자33마더테마디사양일반화학1세라믹스공학20양일반화학실험1재료과학3000&lt;2016학년도2학기전자재료명성3고양C언어기초다다사다시아마국제커뮤니케이션393933950401083고양수학2학점:18평창평균3.00고양명문특헤환산점수:82.9교일일반물리학2&lt;2020학년도1학기&gt;교양일반물리학실험필선선선선진료개발및상당기전전전전!00교양일반화학2반도체공정교황일반화학실험2생체모방소재::기원진료개발및상담Pass연료전지3.0확정:17평창평균:2.82전자세라믹및음용실험3.0환산점수80.8학점:12광접광산:3.25###&lt;2016학년도특별기술학기환산점수85.7교양일반물리학실험20**&lt;2020학년도2학기&gt;&lt;2017학년도1학기&gt;진료개발및상당금영산공업수학:2525재료영역학033300001필선선선330!비판적사고와논리분말가공학필진로개발및상담세라믹공정진재료물리학필3come두괴전자현미경학3.0전재료조직학학점12평창평균132238월2:38전선세라믹상평형환산점수:75.8전선창의적공학설계입문학점:18평점평균:2.50총학점:134환산접수:77.1총평집평균:2.78/4.5&lt;2017학년도2학기&gt;총성직판균:60.30/100공원공업수학23.0마음아영미문화의이해3.0&lt;이하여백&gt;교양한국사회이해3.0진로개발및상당0.0길Pass재료물리화학23.0Co작품:12평창원관2.00환산점수:71.4수상내역위의사실을증명합니다.2023년11월27일전북대학교총·성적표시기준2011년이전:A+=(95-100),A=(94-90),B+=(85-89).B=(80-84),C+=(75-79),C=(70-74),D+=(65-69).D=(60-64).F=60점미만2012년이후:A+=4.5,Ao=4.0.B+=3.5.Bo-3.0.C+=2.5,Co=2.0D+=1.5.Do-1.0,F=0.0본교는상대평가를실시하고있음.*'과목명(영어강의)'은영어로강의가진행된과목을표시황·우)54896전라북도전주시덕진구덕진동1가664-14번지전북대학교학사관리과(063-270-2094)인터넷열량1실리대학¥...·원본대조메뉴에서인터넷발급번호로입학(알리실로부터)X일이내1또는스마트폰원본대조업으로49하단탕마트드美月日601기스마트美캔스토마HHOSE검색다문화올수있습니다위·변조방지용원본대조코드(Internetno)3437653422323819특허10-1039390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서명확인필제출용도:취업제출용발급일:2023/12/022023/12/02제출처:한국농수산식품유통공유효기간:2024/03/0117:19:07아이엔텍성적증명서제2023-216441호성명:양재서대학:공과대학생년월일1997년05월06일(남)입학년월일:2022년03월02일학과/전공:컴퓨터정보통신공학부컴퓨터공학전공졸업년월일:공란학위등록번호:공란학위명:공란구분교과목학정성적구분교과목학점성적구분교과목학정성적편입생인정학점:652023년도1학기2022년도1학기전공개별연구(CS프로그램1P합성기법연구)전공이산구조3전공기술창업캡스톤디지인13B+전공객체지향프로그래밍3A+전공컴퓨터알고리즘과실습344합계취득학점:19명정:72평균:4전공컴퓨터네트워킹3서누계취득학점:59평점:235.5평균:4.21전공공개SW프로젝트3AO학기별백분율:94.3공교기술보고서작성및발표3A+2023년도여름학기합계취득학점:18평점:79.5평균:4.42누계취득학점:18평정:79,5평균:4.42전공개별연구(CS기계학습기1P학기별백분율:99.1반보안약점분석기법)2022년도여름학기합계취득학점:1평점:0평균:0누계취득학점:60평점:235.5평균:4.21공교자아와영상1P공교자아와영상2P총취득학점:125총평균:4.21/4.5합계취득학점:2평점:0평균:0영어강의취득학점:6누계취득학점:20평점:79.5평균:4.42백분율환산점수:96.7석차:13/1722022년도2학기-이하여백-전필자료구조와실습3A+日,日,日中프로그래밍언어개념3B+어드벤처디자인3B+모바일컴퓨팅3A+&lt;영어&gt;테크니컬프리젠3A+테이션전공암호학과네트워크보안3A+전공개별연구(CSAR/MR프로1F그래밍기법연구및시각화프로그래밍)공교불교화인간2At합계취득학점:20평점:84평균:4.2누계취득학점:40평점:163.5평균:4.3학기별백분율:96.62023년도1학기전공컴퓨터구성3A+전공계산적사고법3A+전공형식언어3AO전공데이터베이스시스템3A0전필&lt;영어&gt;컴퓨터공학종합3B+설계1[등급:평정]A+:4.5A0:4.0B+:3.5BD:3.0C+:2.5CO:2.0D+:1.5DO:1.0F:0.0P:Pass(불계)R:재수강(불계)*◇표기는해당언어로강의를진행한과목명.위의사실을증명합니다.2023년12월02일동국대학교교무처본종영서는전자중형서(파일)이므로타임스님프및전자서명이없는증명서는위조로간주되며파일이외의출력물은사본입니다.(INTERNETNO)3245261621633339본증명서는전자증명서(PDF파일)로발급되었습니다.전자증명서는출력시출력물은사본으로인정됩니다.전자증명서확인용전용뷰어가아닌경우진본여부및전자서명을확인할수없으며진본여부가표시되지않습니다.전자증명서확인용전용뷰어는www.certpia.com/eDown에서다운받을수있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계2023-0103746호성적증명서성생학명:신은경대학:생명과학대학입학일자:2018년3월1일원일:1998년10원7일학부(학과):식품생명공학과졸업일자:2023년8원16일번:2018101755전공:식품생명공학학위등록번호:경희대2022(학)05757학위명:이학사이수구분교과목명교강사명학점성적비고일소분교과목명교감사명학점성적비고2018학년도1학기미분쩍분하]박정준3.0CO하하1서명구3.0R2021학년도겨울하기]생물1이상원3.0R16글쓰기2이소정2.0빅뱅에서문명까지김민식3.0B-17소프트웨어백사를한치근3.0인간의가치담색유병래3.0있는신입생세미나1박명진1.0취득하옘:5.0평형평균:3,940덕분을96.90취득하점:10.0정정제금:2,470매분81.192022학년도1학기|5식품생명공학캠스본자인1김우기3.0PAP는[2018학년도2학기16교육심리학한지수2.0일반물리송현석취·창업스쿨(생명과학분야)유재호!!Rp3050FOF82.0생물2김기영311일반물리이나영3.0우리가사는세계이병수15투철글의인류사:전쟁과정화유재명3.0핫즈수화문제:문명윤바꾼수리적발전김진홍3.015고전읽기:박정리도지김연숙3.016글쓰기!송영은2.017지구를생각하는예술백수희16시민교육이될위171:0K.3:창업과기업가정신김진상17전공탐색세미나김영옥취득학점20:0경점평균:3.829194취득하점:15.0정정평균:3,407덕분읍91.572022학년도2타기]12019학년도1학기1식품미생물학Ⅱ및실험박원석3.0CAPPPODFA생물유기화학4김지불중부주차별식품공학2이민혁3.05식품학개든이받효미생물공화박원석3.011화학1이+한화란식품생명공학랩스톤디자인2김우기3.011생물]하선식졸분자생들학김태주3.0En15언어파문학의이해이매불교과정신분석학신은희3.0경희사이버대학교(한국)15한의학과동의발견(경의시이래)취득액점:18.0평점평균:3,000EK7.94취득학점:15.0평정평균:2,8802023학년도1학기]대학영어(면제)|2019학년도여유하기졸업논문(식품공학전공)김우기네트워크티미래17:식품물리화학이민혁3.017후다니타스특강1연구연수활동1(식품공하)김우기1.0식품공학]이진혁3.0취득득점:4.0평점평균:3,000:식품영양학김영록3.080800805면역학강창중3:85그림속의인문화김소희2020학년도2학기식품평화학1555김혜영8672취득하점16.0평점평균:3.120비불88.53식품과건강식품위생학김영수총취득학점:130.0취득학점:9,0평점평균:2,900백분율:86.00총평점평균:3,200/4.3(3.42/4.5)분#89.31/100이하이제[2021학년도1학기1식품성화학2정종현"""3.038080478식품화학I김우기3.04655555식품미생물학]및실험박천석3.0식품나노과학개론김명록3.0식품학개든백무원3.0바이오기능성식품소재김태옥3.080식품공학1김병용3.0R취득학점:18.0쟁점평균:3.383백분율:91.34이수구분:1-기초고양2=통합교양3.건물교양5-전공필수5.전국선택6=교직8=일반선배배분이수교과17=자율이수20=교[격[전선]21-28*지절학기32=대학원·성적등급및행정:A+=4.3AD-4.0A-3.7B+3.380-3.0B-2C+2.3CO=2.0C-=1.7D+=1.3DO=1.0N(F)=Non-Pass.비고:En=영어강좌Ex-교환학생/학점교류N=학점포기R=제수강위의사실을증명합니다.2023년11월29일경희대학교교무[인터넷발급]우리대학및YAY원본대조메뉴에서인터넷100이내)포레스마트폰중딩시하단의CR코드를촬영하여원본대조파인가능.스마트원본대조업은#전산다운받을수있습니다위·변조방지용(Internetno)3245251621503491특허10-1039390원본대조코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2023-0106209호성적증명서입학일자:2003년3월3일성생학명:김민구대학:전자정보대학월일:1984년11월26일학부(학과):전자정보학부졸업일자:2010년2월17일번:2003200035전공:전자공학학위등록번호:경희대2009(학)02738학위명:공학사구분이수교과목명교강사명학점성적비고일소교과목명교강사명학점성적비고[2003타년도1학기]서양의역사회문화김영진3.0A-심리학개론최승희3.0BO2007학년도2하기|2인터넷과사이버스페이스정경숙3.0AO4전자회로실험김상원2.0A-2북구김은식1.0BO5ASIC설계실험송문빈2.0AO2현대생활과체육전진호2.0BO5Windows프로그래밍이대호3.0BO논리회로박세제3.0BO5반도체공학박찬봉3.0BO폴리학및실험1성유제3.0B+5전자회로!!홍상훈3.08-미분적분학1김광환3.0A+5컴퓨터네트워크이대영3.0BO8공모전과함께하는멘토링김양수2.0P취득학점:21.0평정평균:3,471백분율:92.17취득학점:18.0평점평균:3,156백분율:88.882003학년도2학기]김진용2008하년도1학기]2기초대학수학3.0MMMMM12동양의역사와문화오일환3.04자료구조체육삼3.0Activ객체지향프로그래밍이대호3.04졸업연구백운식2.0기초미분방정식최진혁3.05VLSI설계홍상훈3.0미분적분학2국헌05영상신호처리박영태3.0A-5자문제어김상원3.0B+취득학점:15.0평정평균:3.000덕분을:5전송선이큰김인식3.0B+5마이크로프로세시김동한3.0A-En대학과사회봉사1.0R:[2004학년도1학기]생활의지혜김민현1.02영어단편감독이윤성2테니스(교양)주창남취득확정:22.0평점평균3,580백분율:93.203선형대수변희영4기초회로실험조선호2학기5신호와시스템정환웅2009학년도I졸업눔택인증(외국어)P취득학점:12.0평정평균:3,1832웨이트드레이닝(교양)전중복1.0NO2경계축의이해박원규3.04고급객체계양프로그래밍이대호3.0A+En2학기졸업논문(전자공학전공)홍인기P[2004학년도12사회학개론최병묵기초스페인어(경외사이퍼)3.0B+2생활과법률고백근8현현연수원동(개인)1.0P물리학및실험2엄승BellorM3555디지털신호처리김진中美中美美中美산美CCPanda취득학점:11.0평점평균:3,880백분율:80.73디지털회로설계디지털회로실험여정총취득학점:140.0취득학점:18.0평점평균:3.372덕분을총평점평균3,427/4.3(3.66/4.5)분을:91.76/100.이하여백[2007학년도1학기1전자기학|임용운전자회로I홍상훈3.0회로이론박찬봉3.05DSP실험남대성2.0BD5물리전자정완수3.0B-5컴퓨터구조박영태3.0!S화물및랜덤변수김정근3.0취득약정:20.0평점평균:3,645백분율:93.81[2007학년도어름학기]21프로그래밍입문김경훈3.0AO취득약점:3.0평점평균:4,000택분율:97.676m교직8일일선선택14=중학교과15*배분이수교과16=기초교과·여수구분:1기기초교양2=풍합교양3=전골교양4=전공필수소드림머신리11*전공기초17=자유이수20교지(전선)21-28=계절학기·성적등급및평점:A+=4.3AO=4.0A-3.7B+*3.3B0=3.0B-2.7C+=2.3CO-2.0C-1.7D+=1.3DO-1.0D-0.7F=0P=PassN(F)=Non-Pass·삐고:En=영어강좌Ex=고환학생/학점교류해점포기R=제수강위의사실을증명합니다.2023년12월2일경희대학교교무[인터넷만금우리대학및---certaia.com원본대조메뉴에서인터넷담합번호로입력(발급일로부터90일이내)또는스마트폰원본대조립(1of1)증명서하단의OR코드를존영하여원본대조라인가능,스마트원본대조앱은앱스토어/마켓에서원본대조로검색다운받을수있습니다.위·변조방지용원본대조코드(Internetno)3643425422353633특허10-1039390</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -350,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -385,11 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -694,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -707,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -715,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -723,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -731,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -739,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -747,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -755,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -763,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -771,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -779,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -787,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -795,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -803,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -811,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -819,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -827,23 +803,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -851,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -859,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -867,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -875,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -883,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -891,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -899,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -907,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -915,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -923,15 +899,15 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>71</v>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -939,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -947,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -955,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -963,15 +939,15 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -979,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -987,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -995,15 +971,15 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>80</v>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -1011,7 +987,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -1019,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1027,55 +1003,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
